--- a/academias/Administración de Recursos Humanos - Estadisticos 2020.xlsx
+++ b/academias/Administración de Recursos Humanos - Estadisticos 2020.xlsx
@@ -461,6 +461,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -932,6 +933,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1367,6 +1369,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/academias/Administración de Recursos Humanos - Estadisticos 2020.xlsx
+++ b/academias/Administración de Recursos Humanos - Estadisticos 2020.xlsx
@@ -985,22 +985,25 @@
         <v>40</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>45</v>
+      </c>
+      <c r="I2">
+        <v>8.5</v>
       </c>
       <c r="J2">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1273,22 +1276,25 @@
         <v>39</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>35.9</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
       </c>
       <c r="J11">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1305,22 +1311,25 @@
         <v>40</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>7.4</v>
       </c>
       <c r="J12">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1337,22 +1346,25 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F13">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>16.67</v>
+      </c>
+      <c r="I13">
+        <v>7.7</v>
       </c>
       <c r="J13">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1433,7 +1445,7 @@
         <v>12.5</v>
       </c>
       <c r="I2">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -1736,19 +1748,19 @@
         <v>39</v>
       </c>
       <c r="E11">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>92.31</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H11">
-        <v>7.69</v>
+        <v>35.9</v>
       </c>
       <c r="I11">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1771,19 +1783,19 @@
         <v>40</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I12">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1806,16 +1818,16 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="I13">
         <v>8</v>

--- a/academias/Administración de Recursos Humanos - Estadisticos 2020.xlsx
+++ b/academias/Administración de Recursos Humanos - Estadisticos 2020.xlsx
@@ -548,25 +548,25 @@
         <v>39</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>56.41</v>
+        <v>58.97</v>
       </c>
       <c r="H3">
-        <v>43.59</v>
+        <v>41.03</v>
       </c>
       <c r="I3">
         <v>9.5</v>
       </c>
       <c r="J3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>43.59</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,25 +583,25 @@
         <v>39</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>58.97</v>
+        <v>61.54</v>
       </c>
       <c r="H4">
-        <v>41.03</v>
+        <v>38.46</v>
       </c>
       <c r="I4">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>41.03</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,25 +618,25 @@
         <v>39</v>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>69.23</v>
+        <v>74.36</v>
       </c>
       <c r="H5">
-        <v>30.77</v>
+        <v>25.64</v>
       </c>
       <c r="I5">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>30.77</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,25 +653,25 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>87.5</v>
+        <v>95.83</v>
       </c>
       <c r="H6">
-        <v>12.5</v>
+        <v>4.17</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -700,13 +700,13 @@
         <v>14.71</v>
       </c>
       <c r="I7">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,25 +723,25 @@
         <v>34</v>
       </c>
       <c r="E8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>85.29000000000001</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="H8">
-        <v>14.71</v>
+        <v>11.76</v>
       </c>
       <c r="I8">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>14.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -770,13 +770,13 @@
         <v>10.71</v>
       </c>
       <c r="I9">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>10.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,25 +793,25 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>82.14</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H10">
-        <v>17.86</v>
+        <v>14.29</v>
       </c>
       <c r="I10">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>17.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -985,25 +985,25 @@
         <v>40</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>55</v>
+        <v>57.5</v>
       </c>
       <c r="H2">
-        <v>45</v>
+        <v>42.5</v>
       </c>
       <c r="I2">
         <v>8.5</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2">
-        <v>45</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1020,22 +1020,25 @@
         <v>39</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>66.67</v>
+      </c>
+      <c r="I3">
+        <v>9.5</v>
       </c>
       <c r="J3">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1052,22 +1055,25 @@
         <v>39</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>48.72</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>51.28</v>
+      </c>
+      <c r="I4">
+        <v>9.199999999999999</v>
       </c>
       <c r="J4">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>51.28</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1084,22 +1090,25 @@
         <v>39</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>56.41</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>43.59</v>
+      </c>
+      <c r="I5">
+        <v>6.6</v>
       </c>
       <c r="J5">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1116,22 +1125,25 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>91.67</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>8.33</v>
+      </c>
+      <c r="I6">
+        <v>8.300000000000001</v>
       </c>
       <c r="J6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1148,22 +1160,25 @@
         <v>34</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>17.65</v>
+      </c>
+      <c r="I7">
+        <v>8.199999999999999</v>
       </c>
       <c r="J7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1180,22 +1195,25 @@
         <v>34</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F8">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>14.71</v>
+      </c>
+      <c r="I8">
+        <v>8.199999999999999</v>
       </c>
       <c r="J8">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1212,22 +1230,25 @@
         <v>28</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>28.57</v>
+      </c>
+      <c r="I9">
+        <v>8.1</v>
       </c>
       <c r="J9">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1244,22 +1265,25 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F10">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>60.71</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>39.29</v>
+      </c>
+      <c r="I10">
+        <v>8.199999999999999</v>
       </c>
       <c r="J10">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1468,25 +1492,25 @@
         <v>39</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>56.41</v>
+        <v>58.97</v>
       </c>
       <c r="H3">
-        <v>43.59</v>
+        <v>41.03</v>
       </c>
       <c r="I3">
         <v>9.5</v>
       </c>
       <c r="J3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>43.59</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1503,25 +1527,25 @@
         <v>39</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>58.97</v>
+        <v>61.54</v>
       </c>
       <c r="H4">
-        <v>41.03</v>
+        <v>38.46</v>
       </c>
       <c r="I4">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>41.03</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1538,25 +1562,25 @@
         <v>39</v>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>69.23</v>
+        <v>56.41</v>
       </c>
       <c r="H5">
-        <v>30.77</v>
+        <v>43.59</v>
       </c>
       <c r="I5">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>30.77</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1573,25 +1597,25 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>87.5</v>
+        <v>91.67</v>
       </c>
       <c r="H6">
-        <v>12.5</v>
+        <v>8.33</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1608,25 +1632,25 @@
         <v>34</v>
       </c>
       <c r="E7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>85.29000000000001</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H7">
-        <v>14.71</v>
+        <v>17.65</v>
       </c>
       <c r="I7">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1643,25 +1667,25 @@
         <v>34</v>
       </c>
       <c r="E8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>85.29000000000001</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="H8">
-        <v>14.71</v>
+        <v>11.76</v>
       </c>
       <c r="I8">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>14.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1690,13 +1714,13 @@
         <v>10.71</v>
       </c>
       <c r="I9">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>10.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1713,25 +1737,25 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>82.14</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H10">
-        <v>17.86</v>
+        <v>14.29</v>
       </c>
       <c r="I10">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>17.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">

--- a/academias/Administración de Recursos Humanos - Estadisticos 2020.xlsx
+++ b/academias/Administración de Recursos Humanos - Estadisticos 2020.xlsx
@@ -633,10 +633,10 @@
         <v>6.7</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1102,13 +1102,13 @@
         <v>43.59</v>
       </c>
       <c r="I5">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1230,25 +1230,25 @@
         <v>28</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>71.43000000000001</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="H9">
-        <v>28.57</v>
+        <v>21.43</v>
       </c>
       <c r="I9">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <v>28.57</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1265,25 +1265,25 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>60.71</v>
+        <v>67.86</v>
       </c>
       <c r="H10">
-        <v>39.29</v>
+        <v>32.14</v>
       </c>
       <c r="I10">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="J10">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>39.29</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1577,10 +1577,10 @@
         <v>6.6</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">

--- a/academias/Administración de Recursos Humanos - Estadisticos 2020.xlsx
+++ b/academias/Administración de Recursos Humanos - Estadisticos 2020.xlsx
@@ -1230,25 +1230,25 @@
         <v>28</v>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>78.56999999999999</v>
+        <v>82.14</v>
       </c>
       <c r="H9">
-        <v>21.43</v>
+        <v>17.86</v>
       </c>
       <c r="I9">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>21.43</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1277,13 +1277,13 @@
         <v>32.14</v>
       </c>
       <c r="I10">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K10">
-        <v>28.57</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="11" spans="1:11">
